--- a/Outputs/PARX/forecasterror2.xlsx
+++ b/Outputs/PARX/forecasterror2.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -42,11 +42,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -54,6 +68,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,1827 +94,1827 @@
   <dimension ref="A1:A421"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="1" max="1" width="13.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>-8.4497025816860827</v>
+        <v>1.4389205650640675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3.4492241117276734</v>
+        <v>1.8545934623083107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-620.95582559245463</v>
+        <v>-0.20344173652439013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-28.214546670225047</v>
+        <v>-0.11440147836357029</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>8.3440926017382289</v>
+        <v>2.3269040666281513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-10.412094796635603</v>
+        <v>2.5020036766866096</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-17.108294565236221</v>
+        <v>4.0645381848190736</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-7.4229278675967194</v>
+        <v>-0.71312367218012862</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>8.3858377373170789</v>
+        <v>-0.83549453969845466</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-99.666023656786948</v>
+        <v>1.3070389196874568</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-5.4792561300633587</v>
+        <v>2.7507012247752898</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>11.408151300743295</v>
+        <v>0.53573104146421235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>7.3035768798270659</v>
+        <v>2.5365233757973402</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>6.792520751919227</v>
+        <v>1.6160858329038637</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>7.4781209844831302</v>
+        <v>1.4250352057607816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>5.4473097067161458</v>
+        <v>2.4979896787165226</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>5.2392014181390101</v>
+        <v>1.3892052648929987</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>3.4324981776475707</v>
+        <v>3.2003444090394875</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>10.61394848973616</v>
+        <v>0.38829991118248564</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>15.378883268054111</v>
+        <v>1.2996494498794897</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1.5244603365730875</v>
+        <v>4.5504371903008796</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>-1.6074090607544145</v>
+        <v>1.5357512077018554</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>11.635618304151739</v>
+        <v>1.9114746052633604</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>5.3521509324846237</v>
+        <v>1.0473007409332546</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4.3232312692673052</v>
+        <v>5.1039289349156807</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>4.2095549104404588</v>
+        <v>4.4357204405138271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>11.724170295231989</v>
+        <v>2.1221790901521702</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>7.8533435196921708</v>
+        <v>3.0358517945038774</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.76792224719925772</v>
+        <v>1.3755759088091921</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>4.7175475329145815</v>
+        <v>6.2856602302252504</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>10.37856914228273</v>
+        <v>4.3810218559815013</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>6.4440542296218553</v>
+        <v>5.2095624846129853</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>4.3821482394365638</v>
+        <v>2.1947198203037255</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>8.3966080243276657</v>
+        <v>3.9206636168285707</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>6.5073332266126434</v>
+        <v>2.2602632927923856</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>3.5866596172791074</v>
+        <v>1.2831916437481177</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>4.693214765986486</v>
+        <v>3.4425941975761845</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>5.7553511199237191</v>
+        <v>-0.33878132633365299</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>2.754871260169121</v>
+        <v>-1.4477370700964842</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>4.6900064359699174</v>
+        <v>2.6960989155049728</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>8.7588790578532478</v>
+        <v>5.1322117655992985</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1.7611010338027708</v>
+        <v>1.3110849975612802</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>3.5332487072491907</v>
+        <v>4.2755276512221911</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>4.7659332290759977</v>
+        <v>7.3819031653802831</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.80291553536340055</v>
+        <v>-2.798426451012082</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.80586045401563799</v>
+        <v>0.68326965531337613</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.81352787823795791</v>
+        <v>5.4820404470389175</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>5.8243948951051268</v>
+        <v>3.6154988809096213</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>3.8484289763404078</v>
+        <v>1.7324033041524447</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.8282804476916712</v>
+        <v>2.9060848704901625</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1.8457428991961471</v>
+        <v>1.9764083516725361</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>6.819217537283321</v>
+        <v>-6.6400521593843962</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>4.8337007871031936</v>
+        <v>1.5305290900836805</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1.8204851028413234</v>
+        <v>-0.64520403574036633</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>3.7925822094247108</v>
+        <v>2.4564278561059441</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>3.8316768646623092</v>
+        <v>-0.26703234147776822</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>3.8497563492739788</v>
+        <v>1.8008020357528671</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>4.8641121380384691</v>
+        <v>5.2997527870568115</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>3.8613320693627875</v>
+        <v>-6.8244794823474315</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>2.9729609044806491</v>
+        <v>-2.0735431724320481</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>2.1627225032309085</v>
+        <v>2.4892198763825726</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>-2.0530334453376105</v>
+        <v>6.5109233055827067</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.55042597574599306</v>
+        <v>10.517486579942748</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>2.8058166813897989</v>
+        <v>7.3376926192500083</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>-0.21163564843307636</v>
+        <v>5.0934979844218855</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>-3.7421535632988898</v>
+        <v>-0.91443054212903885</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>-1.8040039283400842</v>
+        <v>7.4366355214089204</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.70532249023142812</v>
+        <v>9.5296413462988347</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>-2.141623134167312</v>
+        <v>7.5288412589877769</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>-3.3264984540635325</v>
+        <v>14.605850361233765</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>-0.94726307913868046</v>
+        <v>8.1566130014571137</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>-0.59925666840094882</v>
+        <v>11.08064113049169</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>-0.77078391032395377</v>
+        <v>10.539679343004494</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>-1.5462891006105068</v>
+        <v>18.338665335887754</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.54951652333794732</v>
+        <v>10.298048829162351</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.69242090019149538</v>
+        <v>11.197818946674829</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>2.8073207177309456</v>
+        <v>21.637345864916639</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>-2.0742652771976657</v>
+        <v>16.778516538816582</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>-2.1694325624430086</v>
+        <v>17.766875122232637</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1.0479578517473334</v>
+        <v>10.350365566176624</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1.3258394488130609</v>
+        <v>20.284689019456298</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>-0.59596594552096804</v>
+        <v>22.876070906866392</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1.4458495396069244</v>
+        <v>14.252814391246735</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.47803293250257362</v>
+        <v>7.6066165063129221</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.36402047003858962</v>
+        <v>15.19885064096977</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1.4770617275855988</v>
+        <v>18.097164904029938</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.49976976218605018</v>
+        <v>10.128088742143976</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>2.4096101528314637</v>
+        <v>16.209522550967204</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>-0.58383449941495602</v>
+        <v>19.726471611052755</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.13632268586198371</v>
+        <v>15.593403795170953</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>3.2363231058465285</v>
+        <v>7.1363702783979956</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.082517912896905132</v>
+        <v>17.289100969985441</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.54550601851734015</v>
+        <v>27.199326440885681</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>-0.30752621503624145</v>
+        <v>5.0130229953455068</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>3.479788945154322</v>
+        <v>10.251693051955055</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>2.2091358014935638</v>
+        <v>4.879132347813826</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>-0.46852240608020779</v>
+        <v>11.559153271224886</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.34376633971575687</v>
+        <v>12.49066575322178</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>-1.6920554308093618</v>
+        <v>11.319985417633964</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>2.8905671792303256</v>
+        <v>21.243371223882292</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>1.1455365179766788</v>
+        <v>13.735880539662098</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>2.6949036075552488</v>
+        <v>17.140925255566614</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>-1.5882895068857117</v>
+        <v>16.468746360777569</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>-0.18516678666794828</v>
+        <v>16.684752111927253</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>-2.0544700668176556</v>
+        <v>10.785561341855075</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>-3.1367327234960243</v>
+        <v>19.676681994657166</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>-1.08025394290362</v>
+        <v>20.358686611881424</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>-1.8592890109011648</v>
+        <v>9.3195989180288699</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>-2.2104071528271412</v>
+        <v>18.089979284154396</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>-0.83036488571543376</v>
+        <v>10.729278967241486</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>1.5409199901537729</v>
+        <v>19.871251052507969</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>-2.5293308825844552</v>
+        <v>16.470440867167131</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.095353076140623827</v>
+        <v>21.507530013564974</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>3.5648018547383842</v>
+        <v>24.621053991529443</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>-3.6151455959754575</v>
+        <v>23.970728491547746</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.85506790103411134</v>
+        <v>18.886639755481301</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>2.4440067844813882</v>
+        <v>26.526005941892862</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.17297495207506053</v>
+        <v>24.929514211156377</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>-2.1330286587024743</v>
+        <v>31.645571157969627</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>-1.2853352942777381</v>
+        <v>30.143503039147838</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>-1.8514361957372056</v>
+        <v>30.789474856892522</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>-1.6572103205497539</v>
+        <v>25.292387345941876</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>3.4392373858190979</v>
+        <v>39.176931848577723</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>-3.2393806313487916</v>
+        <v>36.272715584183331</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>-0.68562792076103651</v>
+        <v>19.27860309651102</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>-3.059526739211619</v>
+        <v>15.952080859287666</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>-1.1510848014832611</v>
+        <v>29.277792577104638</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>2.2145023120320815</v>
+        <v>47.716476481713642</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>-2.574821233150125</v>
+        <v>17.27721252947061</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>1.1813860682722264</v>
+        <v>32.126023538060942</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.71551508628924854</v>
+        <v>21.37187123166866</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>4.4161987141657395</v>
+        <v>25.940924774282077</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>8.3542828347419462</v>
+        <v>23.423091377736057</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>4.5877684662080664</v>
+        <v>21.247407516922213</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1.5161698230673242</v>
+        <v>39.919631978372379</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>-0.26906708803698631</v>
+        <v>35.366911677585477</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>6.4816685926813884</v>
+        <v>25.563878317488026</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>7.5265969596142561</v>
+        <v>21.467603230565885</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>3.2808295107131693</v>
+        <v>27.159533722938221</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>8.0189241139974428</v>
+        <v>19.774307134925184</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.35440230242149617</v>
+        <v>28.306237898809826</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1.5849765668600906</v>
+        <v>32.338662768212274</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1.8979289724963007</v>
+        <v>1.3476553486390657</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>8.2585250868136093</v>
+        <v>17.595644877126105</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>-0.86435101655951208</v>
+        <v>29.86828747220925</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>-2.6835166950707254</v>
+        <v>15.135748431325295</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>7.2263254601121751</v>
+        <v>16.356085909278328</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>1.3048717381818058</v>
+        <v>23.455544828851874</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.36857978555918791</v>
+        <v>31.280690639782886</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>-8.0836581560854839</v>
+        <v>-13.425241657205966</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.58074492819316248</v>
+        <v>24.383825017823323</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>2.6662639417733871</v>
+        <v>23.814138331934391</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>-6.9206932973507413</v>
+        <v>20.709655220071383</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>-14.64582341050636</v>
+        <v>42.988717278908524</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>-8.3601363879990132</v>
+        <v>47.295929627982702</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>-4.720497371685493</v>
+        <v>44.058273395760253</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>-11.799496165422692</v>
+        <v>-51.474687568441169</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>-5.6853228259022082</v>
+        <v>-9.2170498908474769</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>-1.4415615351157314</v>
+        <v>60.792429137595363</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>-5.5731659722002576</v>
+        <v>67.036862367812034</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>-13.488997077311119</v>
+        <v>54.157451697115498</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>-3.0337646559783202</v>
+        <v>71.124861907261078</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>7.8997243751279242</v>
+        <v>91.188233514260418</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>-12.180605409915696</v>
+        <v>-11.479497768421965</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>-7.9839045508056188</v>
+        <v>28.216611224939314</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>-13.174735524681818</v>
+        <v>39.327059747968633</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>-6.1619554217139481</v>
+        <v>60.522295410133253</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>-4.0428903756298986</v>
+        <v>90.749166324081941</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>-4.4250890086676975</v>
+        <v>69.003137196345818</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>6.1130285143637551</v>
+        <v>77.185030874534391</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>2.0075536232651139</v>
+        <v>-240.98672766863189</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>4.1093136953710605</v>
+        <v>18.684690083904314</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>3.4672977159466853</v>
+        <v>48.656692986821639</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>3.2541411664874893</v>
+        <v>110.26414484929232</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>-2.8373425040464717</v>
+        <v>96.547169286128423</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>5.5981181656819814</v>
+        <v>-106.77639175888638</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>7.4321529627204335</v>
+        <v>99.484354987714084</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>1.0033425373098019</v>
+        <v>-282.93177239303088</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>5.7573995154581716</v>
+        <v>-127.93257715513502</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>-1.2997209394660345</v>
+        <v>-141.11048490381506</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>6.6534103492864745</v>
+        <v>63.638244565455324</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>2.160988333325939</v>
+        <v>87.30002518492816</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>5.635692700702446</v>
+        <v>-376.98477473838142</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>9.6276139942174517</v>
+        <v>43.118280314589839</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>11.532968978967038</v>
+        <v>-319.9889911252215</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>5.3013134741079426</v>
+        <v>12.124555691754779</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>10.110782236363335</v>
+        <v>85.335006455417698</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>4.5842236660913471</v>
+        <v>69.411795475418344</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>9.723692773668084</v>
+        <v>60.651999094950767</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>6.0596579972159432</v>
+        <v>59.469593604104119</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>5.0145201097262984</v>
+        <v>77.041378402010025</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>3.8503623725683198</v>
+        <v>-286.99365430564092</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>13.447517704728874</v>
+        <v>16.159560059208289</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>6.9792709369533483</v>
+        <v>39.077975039617364</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>-14.369701283638996</v>
+        <v>-279.04812367830687</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>-19.307572461489762</v>
+        <v>6.4366514405552664</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>-8.8389397685663127</v>
+        <v>33.917320978091624</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>10.11226064471326</v>
+        <v>89.081524129997845</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>-9.2117027320434133</v>
+        <v>-270.49540839842035</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>-0.16195968104495506</v>
+        <v>-149.54454353418549</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>-14.433459488313375</v>
+        <v>20.053798647889693</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>-11.641267985802344</v>
+        <v>-91.450169445599727</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>-15.562332977380144</v>
+        <v>5.2805480112374994</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>-17.527488551772457</v>
+        <v>24.067911682263102</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>1.5613476954689531</v>
+        <v>46.743797007067855</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>16.040748180257935</v>
+        <v>-507.66126589726412</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>-1.6369980539374538</v>
+        <v>-20.737096288369017</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>-8.96827603222156</v>
+        <v>22.352221952556597</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>-9.3901664956365138</v>
+        <v>-189.62323843396265</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>-18.414773772013085</v>
+        <v>-15.945726692366392</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>-9.8722552324776416</v>
+        <v>18.046256726403875</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.9286785146404668</v>
+        <v>33.158576452530077</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>-7.243320775119038</v>
+        <v>-393.55283007469671</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.93460386555654651</v>
+        <v>-28.124909097888008</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>3.1534680763938212</v>
+        <v>11.256763349587114</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>-15.108851239962384</v>
+        <v>-200.87710350521027</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>-14.649104321780499</v>
+        <v>-17.284206457901334</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>-9.1725550603367196</v>
+        <v>11.384113222449272</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>3.5550702317732998</v>
+        <v>25.324203561771633</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>10.10096013816792</v>
+        <v>-253.49085126898206</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>13.654782145760123</v>
+        <v>-7.0963224615884855</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>12.719911513915648</v>
+        <v>-31.799015090323195</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>12.170168298402253</v>
+        <v>-136.67978170954058</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>21.625596177929495</v>
+        <v>7.1148770200864782</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>22.126988453913114</v>
+        <v>9.9500924541565166</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>39.323425475327703</v>
+        <v>12.438758681678067</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>8.5435381575095093</v>
+        <v>-128.14347138852386</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>17.175203217951967</v>
+        <v>-2.0688137621531268</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>39.538890882206594</v>
+        <v>17.587060596138024</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>29.269267982535467</v>
+        <v>-34.28663988916982</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>12.158258603900848</v>
+        <v>3.101228798415363</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>22.958240181730673</v>
+        <v>5.3085073978202999</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>42.421459225431732</v>
+        <v>17.761417565077544</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>55.767803468693344</v>
+        <v>-81.612844024237617</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>41.341717547774508</v>
+        <v>10.63861924122827</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>35.489250020681922</v>
+        <v>22.852950381905174</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>25.152705395636943</v>
+        <v>-33.643445693781004</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>14.618873457651063</v>
+        <v>7.0325589568072857</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>-22.152713405637627</v>
+        <v>10.324441203425629</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>23.009166325958859</v>
+        <v>14.237597330922075</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>-18.892447138842357</v>
+        <v>-27.731507677955577</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>-26.836609123241743</v>
+        <v>11.692436069900211</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>-62.316306992353958</v>
+        <v>14.235301019938111</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>-22.739949838658731</v>
+        <v>-18.641207081292087</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>-45.125918334525295</v>
+        <v>23.951840496418782</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>-58.327594845905367</v>
+        <v>11.756494190376246</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>12.026642669684406</v>
+        <v>3.7539792986747216</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>-51.153303080028934</v>
+        <v>-4.7826921951777877</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>-77.357898383733215</v>
+        <v>18.472384500931071</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>-79.541520585648101</v>
+        <v>18.019506484460248</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>-44.410740746381151</v>
+        <v>-5.4328866862506118</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>-48.444668570177072</v>
+        <v>19.266034240834266</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>-69.36651860699746</v>
+        <v>18.524561384518666</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>-22.82783005658905</v>
+        <v>15.914929657342622</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>-67.320078601318698</v>
+        <v>13.569118347814069</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>-43.206328250797043</v>
+        <v>17.746382107562063</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>-22.756386290669184</v>
+        <v>15.997536790770777</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>-40.655310032421056</v>
+        <v>3.5260035127080798</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>-39.585890548875767</v>
+        <v>11.660880420696529</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>-38.261050508244466</v>
+        <v>24.719135726401053</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>-16.256176470066293</v>
+        <v>34.444289446046007</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>-35.17975874117235</v>
+        <v>-1.5051357924290869</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>-20.65581844175469</v>
+        <v>10.897671426824626</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>-31.018731070072207</v>
+        <v>30.711721043361123</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>-15.258056936735301</v>
+        <v>18.87559515493335</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>-29.764862107622463</v>
+        <v>24.197059878332386</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>-24.722027541688917</v>
+        <v>22.469742950782674</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>26.027853530162218</v>
+        <v>38.8616826085767</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>11.059255935647684</v>
+        <v>-7.8434158690455433</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>-28.770025284302889</v>
+        <v>13.244406475455136</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>-3.0281636588853189</v>
+        <v>21.005604687749077</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>-7.0859055446149739</v>
+        <v>17.040749028736169</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>-26.403509464601868</v>
+        <v>18.832884265366978</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>-22.424360866928183</v>
+        <v>8.8599796795046828</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>-2.8619201107576941</v>
+        <v>-11.186976816404503</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>-22.191805927647067</v>
+        <v>21.92862010544523</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>-11.31134346468103</v>
+        <v>-2.1295563170077898</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>-13.113646495329846</v>
+        <v>19.748556651927078</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>-15.647001285858153</v>
+        <v>11.239076361690113</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>-31.067243369564117</v>
+        <v>15.077402123468453</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>-14.892647629078596</v>
+        <v>14.105197811990084</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>-3.0330958686470879</v>
+        <v>19.910312625172224</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>-11.121678056705946</v>
+        <v>-5.3037733804176455</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>-12.849980287138614</v>
+        <v>13.566206609378796</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>-9.0461845243083943</v>
+        <v>23.432977671907466</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>0.099313137845186361</v>
+        <v>5.3123253891049451</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>-14.307006845933032</v>
+        <v>19.603072743271635</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>-3.5461399839632222</v>
+        <v>29.052265549757358</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>4.0462428061572915</v>
+        <v>27.3005190069163</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>11.119663289961398</v>
+        <v>-5.7602738678084933</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>8.535804028152647</v>
+        <v>11.453020379345638</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>-3.5896940764569791</v>
+        <v>17.85390911561263</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>-4.1915169657550067</v>
+        <v>-7.3046571100402531</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>8.8812057921656411</v>
+        <v>15.518432946012933</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>-1.5751167914301654</v>
+        <v>5.7357661536383375</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>3.2960459361100867</v>
+        <v>8.7787600911785226</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>-1.3953587814893176</v>
+        <v>2.5760830487263249</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>2.9183744988831783</v>
+        <v>18.12449001084202</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>13.474433562991194</v>
+        <v>25.341362041421011</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>13.125260579998027</v>
+        <v>-12.075933121173627</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>5.1448874388650943</v>
+        <v>7.9559157545132244</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>0.20669670797776973</v>
+        <v>18.742193970859663</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>8.8585224605351556</v>
+        <v>7.9838352141724656</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>4.9665544136310658</v>
+        <v>-11.68740875501868</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>12.806295874423164</v>
+        <v>1.8760844607206444</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>14.838388826604984</v>
+        <v>8.6409034063466201</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>5.2002264845239026</v>
+        <v>10.404868648490023</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>5.1540195617541009</v>
+        <v>19.810531522197405</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>-0.57104668532246095</v>
+        <v>17.546666195459636</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>1.7458011856916329</v>
+        <v>33.248737068442949</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>13.661551215033224</v>
+        <v>-8.354079753034295</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>5.2087180944018598</v>
+        <v>13.211568753487516</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>4.5296276839116665</v>
+        <v>14.131959926930847</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>-2.5181083840455081</v>
+        <v>28.617588132898739</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>13.891649311902164</v>
+        <v>20.516462524862511</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>-3.6923260758007217</v>
+        <v>24.24267381762585</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>-4.573249862492105</v>
+        <v>7.2264880391020974</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>5.4542539986862231</v>
+        <v>0.46875000666584299</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>3.5613645637415239</v>
+        <v>21.925481262178614</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>1.6882165636496573</v>
+        <v>11.123327243969253</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>-12.151852155827207</v>
+        <v>18.395578997594171</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>1.6879764858487718</v>
+        <v>10.979251108439692</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>-3.4412379458236586</v>
+        <v>16.115439025961365</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>-3.7660575097988165</v>
+        <v>9.1060005741995091</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>6.8783996908292266</v>
+        <v>16.438827183179988</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>-0.32581699426891575</v>
+        <v>13.975994553345679</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>-3.0253678512487348</v>
+        <v>23.019407960878723</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>-10.968275051844216</v>
+        <v>6.7745955452387108</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>-7.1464560881614076</v>
+        <v>7.8272431006462142</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>4.5458266807550345</v>
+        <v>6.1128336640622951</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>16.12536817279782</v>
+        <v>17.430830284765467</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>-2.6945229495478316</v>
+        <v>9.1647980100121202</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>0.50620742579434008</v>
+        <v>11.141562053131358</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>12.653507811800559</v>
+        <v>12.98904694536933</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>5.477671467395588</v>
+        <v>-4.4421958132300219</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>8.1219654945198201</v>
+        <v>-0.23285182318756981</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>3.204270512835123</v>
+        <v>2.9382653488040056</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>19.550794074554343</v>
+        <v>10.754394227858189</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>3.1201627351684635</v>
+        <v>0.47700251112794945</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>10.062669495695992</v>
+        <v>21.45203303920227</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>-1.0752602687516841</v>
+        <v>11.492256077935373</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>-5.8366843456007658</v>
+        <v>-4.2007828584540547</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>-7.9119746708716434</v>
+        <v>2.2445642617773167</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>-9.7497364611102739</v>
+        <v>13.492353250713066</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>-13.507182235232534</v>
+        <v>10.503141673372813</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>7.5687029705668962</v>
+        <v>2.5052772249094701</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>-5.2397746116213639</v>
+        <v>3.6214142574621659</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>-3.5158941718067211</v>
+        <v>2.8976703007825853</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>-6.8002371053651558</v>
+        <v>-0.47761019474813082</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>-9.3442130136206174</v>
+        <v>7.5042863815391838</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>-12.031674682014305</v>
+        <v>7.156674660454077</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>-6.3437898990745865</v>
+        <v>-2.6142991658266048</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>-1.16682429190557</v>
+        <v>3.2145343288689503</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>-3.8946448325658949</v>
+        <v>4.2589568933133837</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>0.42985316563676434</v>
+        <v>4.5936888795519906</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>-5.784472526412479</v>
+        <v>-6.9898397441545157</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>-0.2916163743574316</v>
+        <v>0.78812941769142508</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>5.6935744425774573</v>
+        <v>1.1685841896599749</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>10.997874783062613</v>
+        <v>-1.1798959130328699</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>5.2664437920638711</v>
+        <v>-1.5149652158058871</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>-0.21998148713523591</v>
+        <v>6.2169517569426205</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>-2.4882799021795492</v>
+        <v>9.1236601053256905</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>-6.8578876358135048</v>
+        <v>-1.3037029624998544</v>
       </c>
     </row>
     <row r="365">

--- a/Outputs/PARX/forecasterror2.xlsx
+++ b/Outputs/PARX/forecasterror2.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -56,11 +56,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -82,6 +84,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Outputs/PARX/forecasterror2.xlsx
+++ b/Outputs/PARX/forecasterror2.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -58,11 +58,27 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -86,6 +102,22 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,1830 +127,1830 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A421"/>
+  <dimension ref="A1:A434"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.4389205650640675</v>
+        <v>-8.4497025816860827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.8545934623083107</v>
+        <v>3.4492241117276734</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.20344173652439013</v>
+        <v>-620.95582559245463</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.11440147836357029</v>
+        <v>-28.214546670225047</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2.3269040666281513</v>
+        <v>8.3440926017382289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2.5020036766866096</v>
+        <v>-10.412094796635603</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>4.0645381848190736</v>
+        <v>-17.108294565236221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.71312367218012862</v>
+        <v>-7.4229278675967194</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-0.83549453969845466</v>
+        <v>8.3858377373170789</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1.3070389196874568</v>
+        <v>-99.666023656786948</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2.7507012247752898</v>
+        <v>-5.4792561300633587</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.53573104146421235</v>
+        <v>11.408151300743295</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2.5365233757973402</v>
+        <v>7.3035768798270659</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1.6160858329038637</v>
+        <v>6.792520751919227</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1.4250352057607816</v>
+        <v>7.4781209844831302</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2.4979896787165226</v>
+        <v>5.4473097067161458</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.3892052648929987</v>
+        <v>5.2392014181390101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>3.2003444090394875</v>
+        <v>3.4324981776475707</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.38829991118248564</v>
+        <v>10.61394848973616</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1.2996494498794897</v>
+        <v>15.378883268054111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>4.5504371903008796</v>
+        <v>1.5244603365730875</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1.5357512077018554</v>
+        <v>-1.6074090607544145</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1.9114746052633604</v>
+        <v>11.635618304151739</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1.0473007409332546</v>
+        <v>5.3521509324846237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>5.1039289349156807</v>
+        <v>4.3232312692673052</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>4.4357204405138271</v>
+        <v>4.2095549104404588</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2.1221790901521702</v>
+        <v>11.724170295231989</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>3.0358517945038774</v>
+        <v>7.8533435196921708</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1.3755759088091921</v>
+        <v>0.76792224719925772</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>6.2856602302252504</v>
+        <v>4.7175475329145815</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>4.3810218559815013</v>
+        <v>10.37856914228273</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>5.2095624846129853</v>
+        <v>6.4440542296218553</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>2.1947198203037255</v>
+        <v>4.3821482394365638</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>3.9206636168285707</v>
+        <v>8.3966080243276657</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>2.2602632927923856</v>
+        <v>6.5073332266126434</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1.2831916437481177</v>
+        <v>3.5866596172791074</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>3.4425941975761845</v>
+        <v>4.693214765986486</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>-0.33878132633365299</v>
+        <v>5.7553511199237191</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>-1.4477370700964842</v>
+        <v>2.754871260169121</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>2.6960989155049728</v>
+        <v>4.6900064359699174</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>5.1322117655992985</v>
+        <v>8.7588790578532478</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1.3110849975612802</v>
+        <v>1.7611010338027708</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>4.2755276512221911</v>
+        <v>3.5332487072491907</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>7.3819031653802831</v>
+        <v>4.7659332290759977</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>-2.798426451012082</v>
+        <v>0.80291553536340055</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.68326965531337613</v>
+        <v>0.80586045401563799</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>5.4820404470389175</v>
+        <v>0.81352787823795791</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>3.6154988809096213</v>
+        <v>5.8243948951051268</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1.7324033041524447</v>
+        <v>3.8484289763404078</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>2.9060848704901625</v>
+        <v>0.8282804476916712</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1.9764083516725361</v>
+        <v>1.8457428991961471</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>-6.6400521593843962</v>
+        <v>6.819217537283321</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1.5305290900836805</v>
+        <v>4.8337007871031936</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>-0.64520403574036633</v>
+        <v>1.8204851028413234</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>2.4564278561059441</v>
+        <v>3.7925822094247108</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>-0.26703234147776822</v>
+        <v>3.8316768646623092</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.8008020357528671</v>
+        <v>3.8497563492739788</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>5.2997527870568115</v>
+        <v>4.8641121380384691</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>-6.8244794823474315</v>
+        <v>3.8613320693627875</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>-2.0735431724320481</v>
+        <v>2.9729609044806491</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>2.4892198763825726</v>
+        <v>2.1627225032309085</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>6.5109233055827067</v>
+        <v>-2.0530334453376105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>10.517486579942748</v>
+        <v>0.55042597574599306</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>7.3376926192500083</v>
+        <v>2.8058166813897989</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>5.0934979844218855</v>
+        <v>-0.21163564843307636</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>-0.91443054212903885</v>
+        <v>-3.7421535632988898</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>7.4366355214089204</v>
+        <v>-1.8040039283400842</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>9.5296413462988347</v>
+        <v>0.70532249023142812</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>7.5288412589877769</v>
+        <v>-2.141623134167312</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>14.605850361233765</v>
+        <v>-3.3264984540635325</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>8.1566130014571137</v>
+        <v>-0.94726307913868046</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>11.08064113049169</v>
+        <v>-0.59925666840094882</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>10.539679343004494</v>
+        <v>-0.77078391032395377</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>18.338665335887754</v>
+        <v>-1.5462891006105068</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>10.298048829162351</v>
+        <v>0.54951652333794732</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>11.197818946674829</v>
+        <v>0.69242090019149538</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>21.637345864916639</v>
+        <v>2.8073207177309456</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>16.778516538816582</v>
+        <v>-2.0742652771976657</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>17.766875122232637</v>
+        <v>-2.1694325624430086</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>10.350365566176624</v>
+        <v>1.0479578517473334</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>20.284689019456298</v>
+        <v>1.3258394488130609</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>22.876070906866392</v>
+        <v>-0.59596594552096804</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>14.252814391246735</v>
+        <v>1.4458495396069244</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>7.6066165063129221</v>
+        <v>0.47803293250257362</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>15.19885064096977</v>
+        <v>0.36402047003858962</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>18.097164904029938</v>
+        <v>1.4770617275855988</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>10.128088742143976</v>
+        <v>0.49976976218605018</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>16.209522550967204</v>
+        <v>2.4096101528314637</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>19.726471611052755</v>
+        <v>-0.58383449941495602</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>15.593403795170953</v>
+        <v>0.13632268586198371</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>7.1363702783979956</v>
+        <v>3.2363231058465285</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>17.289100969985441</v>
+        <v>0.082517912896905132</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>27.199326440885681</v>
+        <v>0.54550601851734015</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>5.0130229953455068</v>
+        <v>-0.30752621503624145</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>10.251693051955055</v>
+        <v>3.479788945154322</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>4.879132347813826</v>
+        <v>2.2091358014935638</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>11.559153271224886</v>
+        <v>-0.46852240608020779</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>12.49066575322178</v>
+        <v>0.34376633971575687</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>11.319985417633964</v>
+        <v>-1.6920554308093618</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>21.243371223882292</v>
+        <v>2.8905671792303256</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>13.735880539662098</v>
+        <v>1.1455365179766788</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>17.140925255566614</v>
+        <v>2.6949036075552488</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>16.468746360777569</v>
+        <v>-1.5882895068857117</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>16.684752111927253</v>
+        <v>-0.18516678666794828</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>10.785561341855075</v>
+        <v>-2.0544700668176556</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>19.676681994657166</v>
+        <v>-3.1367327234960243</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>20.358686611881424</v>
+        <v>-1.08025394290362</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>9.3195989180288699</v>
+        <v>-1.8592890109011648</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>18.089979284154396</v>
+        <v>-2.2104071528271412</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>10.729278967241486</v>
+        <v>-0.83036488571543376</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>19.871251052507969</v>
+        <v>1.5409199901537729</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>16.470440867167131</v>
+        <v>-2.5293308825844552</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>21.507530013564974</v>
+        <v>0.095353076140623827</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>24.621053991529443</v>
+        <v>3.5648018547383842</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>23.970728491547746</v>
+        <v>-3.6151455959754575</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>18.886639755481301</v>
+        <v>0.85506790103411134</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>26.526005941892862</v>
+        <v>2.4440067844813882</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>24.929514211156377</v>
+        <v>0.17297495207506053</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>31.645571157969627</v>
+        <v>-2.1330286587024743</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>30.143503039147838</v>
+        <v>-1.2853352942777381</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>30.789474856892522</v>
+        <v>-1.8514361957372056</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>25.292387345941876</v>
+        <v>-1.6572103205497539</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>39.176931848577723</v>
+        <v>3.4392373858190979</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>36.272715584183331</v>
+        <v>-3.2393806313487916</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>19.27860309651102</v>
+        <v>-0.68562792076103651</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>15.952080859287666</v>
+        <v>-3.059526739211619</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>29.277792577104638</v>
+        <v>-1.1510848014832611</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>47.716476481713642</v>
+        <v>2.2145023120320815</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>17.27721252947061</v>
+        <v>-2.574821233150125</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>32.126023538060942</v>
+        <v>1.1813860682722264</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>21.37187123166866</v>
+        <v>0.71551508628924854</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>25.940924774282077</v>
+        <v>4.4161987141657395</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>23.423091377736057</v>
+        <v>8.3542828347419462</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>21.247407516922213</v>
+        <v>4.5877684662080664</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>39.919631978372379</v>
+        <v>1.5161698230673242</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>35.366911677585477</v>
+        <v>-0.26906708803698631</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>25.563878317488026</v>
+        <v>6.4816685926813884</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>21.467603230565885</v>
+        <v>7.5265969596142561</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>27.159533722938221</v>
+        <v>3.2808295107131693</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>19.774307134925184</v>
+        <v>8.0189241139974428</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>28.306237898809826</v>
+        <v>0.35440230242149617</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>32.338662768212274</v>
+        <v>1.5849765668600906</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1.3476553486390657</v>
+        <v>1.8979289724963007</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>17.595644877126105</v>
+        <v>8.2585250868136093</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>29.86828747220925</v>
+        <v>-0.86435101655951208</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>15.135748431325295</v>
+        <v>-2.6835166950707254</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>16.356085909278328</v>
+        <v>7.2263254601121751</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>23.455544828851874</v>
+        <v>1.3048717381818058</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>31.280690639782886</v>
+        <v>0.36857978555918791</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>-13.425241657205966</v>
+        <v>-8.0836581560854839</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>24.383825017823323</v>
+        <v>0.58074492819316248</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>23.814138331934391</v>
+        <v>2.6662639417733871</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>20.709655220071383</v>
+        <v>-6.9206932973507413</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>42.988717278908524</v>
+        <v>-14.64582341050636</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>47.295929627982702</v>
+        <v>-8.3601363879990132</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>44.058273395760253</v>
+        <v>-4.720497371685493</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>-51.474687568441169</v>
+        <v>-11.799496165422692</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>-9.2170498908474769</v>
+        <v>-5.6853228259022082</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>60.792429137595363</v>
+        <v>-1.4415615351157314</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>67.036862367812034</v>
+        <v>-5.5731659722002576</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>54.157451697115498</v>
+        <v>-13.488997077311119</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>71.124861907261078</v>
+        <v>-3.0337646559783202</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>91.188233514260418</v>
+        <v>7.8997243751279242</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>-11.479497768421965</v>
+        <v>-12.180605409915696</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>28.216611224939314</v>
+        <v>-7.9839045508056188</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>39.327059747968633</v>
+        <v>-13.174735524681818</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>60.522295410133253</v>
+        <v>-6.1619554217139481</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>90.749166324081941</v>
+        <v>-4.0428903756298986</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>69.003137196345818</v>
+        <v>-4.4250890086676975</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>77.185030874534391</v>
+        <v>6.1130285143637551</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>-240.98672766863189</v>
+        <v>2.0075536232651139</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>18.684690083904314</v>
+        <v>4.1093136953710605</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>48.656692986821639</v>
+        <v>3.4672977159466853</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>110.26414484929232</v>
+        <v>3.2541411664874893</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>96.547169286128423</v>
+        <v>-2.8373425040464717</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>-106.77639175888638</v>
+        <v>5.5981181656819814</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>99.484354987714084</v>
+        <v>7.4321529627204335</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>-282.93177239303088</v>
+        <v>1.0033425373098019</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>-127.93257715513502</v>
+        <v>5.7573995154581716</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>-141.11048490381506</v>
+        <v>-1.2997209394660345</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>63.638244565455324</v>
+        <v>6.6534103492864745</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>87.30002518492816</v>
+        <v>2.160988333325939</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>-376.98477473838142</v>
+        <v>5.635692700702446</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>43.118280314589839</v>
+        <v>9.6276139942174517</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>-319.9889911252215</v>
+        <v>11.532968978967038</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>12.124555691754779</v>
+        <v>5.3013134741079426</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>85.335006455417698</v>
+        <v>10.110782236363335</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>69.411795475418344</v>
+        <v>4.5842236660913471</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>60.651999094950767</v>
+        <v>9.723692773668084</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>59.469593604104119</v>
+        <v>6.0596579972159432</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>77.041378402010025</v>
+        <v>5.0145201097262984</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>-286.99365430564092</v>
+        <v>3.8503623725683198</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>16.159560059208289</v>
+        <v>13.447517704728874</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>39.077975039617364</v>
+        <v>6.9792709369533483</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>-279.04812367830687</v>
+        <v>-14.369701283638996</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>6.4366514405552664</v>
+        <v>-19.307572461489762</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>33.917320978091624</v>
+        <v>-8.8389397685663127</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>89.081524129997845</v>
+        <v>10.11226064471326</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>-270.49540839842035</v>
+        <v>-9.2117027320434133</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>-149.54454353418549</v>
+        <v>-0.16195968104495506</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>20.053798647889693</v>
+        <v>-14.433459488313375</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>-91.450169445599727</v>
+        <v>-11.641267985802344</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>5.2805480112374994</v>
+        <v>-15.562332977380144</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>24.067911682263102</v>
+        <v>-17.527488551772457</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>46.743797007067855</v>
+        <v>1.5613476954689531</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>-507.66126589726412</v>
+        <v>16.040748180257935</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>-20.737096288369017</v>
+        <v>-1.6369980539374538</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>22.352221952556597</v>
+        <v>-8.96827603222156</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>-189.62323843396265</v>
+        <v>-9.3901664956365138</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>-15.945726692366392</v>
+        <v>-18.414773772013085</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>18.046256726403875</v>
+        <v>-9.8722552324776416</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>33.158576452530077</v>
+        <v>0.9286785146404668</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>-393.55283007469671</v>
+        <v>-7.243320775119038</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>-28.124909097888008</v>
+        <v>0.93460386555654651</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>11.256763349587114</v>
+        <v>3.1534680763938212</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>-200.87710350521027</v>
+        <v>-15.108851239962384</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>-17.284206457901334</v>
+        <v>-14.649104321780499</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>11.384113222449272</v>
+        <v>-9.1725550603367196</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>25.324203561771633</v>
+        <v>3.5550702317732998</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>-253.49085126898206</v>
+        <v>10.10096013816792</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>-7.0963224615884855</v>
+        <v>13.654782145760123</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>-31.799015090323195</v>
+        <v>12.719911513915648</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>-136.67978170954058</v>
+        <v>12.170168298402253</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>7.1148770200864782</v>
+        <v>21.625596177929495</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>9.9500924541565166</v>
+        <v>22.126988453913114</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>12.438758681678067</v>
+        <v>39.323425475327703</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>-128.14347138852386</v>
+        <v>8.5435381575095093</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>-2.0688137621531268</v>
+        <v>17.175203217951967</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>17.587060596138024</v>
+        <v>39.538890882206594</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>-34.28663988916982</v>
+        <v>29.269267982535467</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>3.101228798415363</v>
+        <v>12.158258603900848</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>5.3085073978202999</v>
+        <v>22.958240181730673</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>17.761417565077544</v>
+        <v>42.421459225431732</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>-81.612844024237617</v>
+        <v>55.767803468693344</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>10.63861924122827</v>
+        <v>41.341717547774508</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>22.852950381905174</v>
+        <v>35.489250020681922</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>-33.643445693781004</v>
+        <v>25.152705395636943</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>7.0325589568072857</v>
+        <v>14.618873457651063</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>10.324441203425629</v>
+        <v>-22.152713405637627</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>14.237597330922075</v>
+        <v>23.009166325958859</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>-27.731507677955577</v>
+        <v>-18.892447138842357</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>11.692436069900211</v>
+        <v>-26.836609123241743</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>14.235301019938111</v>
+        <v>-62.316306992353958</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>-18.641207081292087</v>
+        <v>-22.739949838658731</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>23.951840496418782</v>
+        <v>-45.125918334525295</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>11.756494190376246</v>
+        <v>-58.327594845905367</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>3.7539792986747216</v>
+        <v>12.026642669684406</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>-4.7826921951777877</v>
+        <v>-51.153303080028934</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>18.472384500931071</v>
+        <v>-77.357898383733215</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>18.019506484460248</v>
+        <v>-79.541520585648101</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>-5.4328866862506118</v>
+        <v>-44.410740746381151</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>19.266034240834266</v>
+        <v>-48.444668570177072</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>18.524561384518666</v>
+        <v>-69.36651860699746</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>15.914929657342622</v>
+        <v>-22.82783005658905</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>13.569118347814069</v>
+        <v>-67.320078601318698</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>17.746382107562063</v>
+        <v>-43.206328250797043</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>15.997536790770777</v>
+        <v>-22.756386290669184</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>3.5260035127080798</v>
+        <v>-40.655310032421056</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>11.660880420696529</v>
+        <v>-39.585890548875767</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>24.719135726401053</v>
+        <v>-38.261050508244466</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>34.444289446046007</v>
+        <v>-16.256176470066293</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>-1.5051357924290869</v>
+        <v>-35.17975874117235</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>10.897671426824626</v>
+        <v>-20.65581844175469</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>30.711721043361123</v>
+        <v>-31.018731070072207</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>18.87559515493335</v>
+        <v>-15.258056936735301</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>24.197059878332386</v>
+        <v>-29.764862107622463</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>22.469742950782674</v>
+        <v>-24.722027541688917</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>38.8616826085767</v>
+        <v>26.027853530162218</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>-7.8434158690455433</v>
+        <v>11.059255935647684</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>13.244406475455136</v>
+        <v>-28.770025284302889</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>21.005604687749077</v>
+        <v>-3.0281636588853189</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>17.040749028736169</v>
+        <v>-7.0859055446149739</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>18.832884265366978</v>
+        <v>-26.403509464601868</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>8.8599796795046828</v>
+        <v>-22.424360866928183</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>-11.186976816404503</v>
+        <v>-2.8619201107576941</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>21.92862010544523</v>
+        <v>-22.191805927647067</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>-2.1295563170077898</v>
+        <v>-11.31134346468103</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>19.748556651927078</v>
+        <v>-13.113646495329846</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>11.239076361690113</v>
+        <v>-15.647001285858153</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>15.077402123468453</v>
+        <v>-31.067243369564117</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>14.105197811990084</v>
+        <v>-14.892647629078596</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>19.910312625172224</v>
+        <v>-3.0330958686470879</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>-5.3037733804176455</v>
+        <v>-11.121678056705946</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>13.566206609378796</v>
+        <v>-12.849980287138614</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>23.432977671907466</v>
+        <v>-9.0461845243083943</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>5.3123253891049451</v>
+        <v>0.099313137845186361</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>19.603072743271635</v>
+        <v>-14.307006845933032</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>29.052265549757358</v>
+        <v>-3.5461399839632222</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>27.3005190069163</v>
+        <v>4.0462428061572915</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>-5.7602738678084933</v>
+        <v>11.119663289961398</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>11.453020379345638</v>
+        <v>8.535804028152647</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>17.85390911561263</v>
+        <v>-3.5896940764569791</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>-7.3046571100402531</v>
+        <v>-4.1915169657550067</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>15.518432946012933</v>
+        <v>8.8812057921656411</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>5.7357661536383375</v>
+        <v>-1.5751167914301654</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>8.7787600911785226</v>
+        <v>3.2960459361100867</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>2.5760830487263249</v>
+        <v>-1.3953587814893176</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>18.12449001084202</v>
+        <v>2.9183744988831783</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>25.341362041421011</v>
+        <v>13.474433562991194</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>-12.075933121173627</v>
+        <v>13.125260579998027</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>7.9559157545132244</v>
+        <v>5.1448874388650943</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>18.742193970859663</v>
+        <v>0.20669670797776973</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>7.9838352141724656</v>
+        <v>8.8585224605351556</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>-11.68740875501868</v>
+        <v>4.9665544136310658</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>1.8760844607206444</v>
+        <v>12.806295874423164</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>8.6409034063466201</v>
+        <v>14.838388826604984</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>10.404868648490023</v>
+        <v>5.2002264845239026</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>19.810531522197405</v>
+        <v>5.1540195617541009</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>17.546666195459636</v>
+        <v>-0.57104668532246095</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>33.248737068442949</v>
+        <v>1.7458011856916329</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>-8.354079753034295</v>
+        <v>13.661551215033224</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>13.211568753487516</v>
+        <v>5.2087180944018598</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>14.131959926930847</v>
+        <v>4.5296276839116665</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>28.617588132898739</v>
+        <v>-2.5181083840455081</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>20.516462524862511</v>
+        <v>13.891649311902164</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>24.24267381762585</v>
+        <v>-3.6923260758007217</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>7.2264880391020974</v>
+        <v>-4.573249862492105</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>0.46875000666584299</v>
+        <v>5.4542539986862231</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>21.925481262178614</v>
+        <v>3.5613645637415239</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>11.123327243969253</v>
+        <v>1.6882165636496573</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>18.395578997594171</v>
+        <v>-12.151852155827207</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>10.979251108439692</v>
+        <v>1.6879764858487718</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>16.115439025961365</v>
+        <v>-3.4412379458236586</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>9.1060005741995091</v>
+        <v>-3.7660575097988165</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>16.438827183179988</v>
+        <v>6.8783996908292266</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>13.975994553345679</v>
+        <v>-0.32581699426891575</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>23.019407960878723</v>
+        <v>-3.0253678512487348</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>6.7745955452387108</v>
+        <v>-10.968275051844216</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>7.8272431006462142</v>
+        <v>-7.1464560881614076</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>6.1128336640622951</v>
+        <v>4.5458266807550345</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>17.430830284765467</v>
+        <v>16.12536817279782</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>9.1647980100121202</v>
+        <v>-2.6945229495478316</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>11.141562053131358</v>
+        <v>0.50620742579434008</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>12.98904694536933</v>
+        <v>12.653507811800559</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>-4.4421958132300219</v>
+        <v>5.477671467395588</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>-0.23285182318756981</v>
+        <v>8.1219654945198201</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>2.9382653488040056</v>
+        <v>3.204270512835123</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>10.754394227858189</v>
+        <v>19.550794074554343</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>0.47700251112794945</v>
+        <v>3.1201627351684635</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>21.45203303920227</v>
+        <v>10.062669495695992</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>11.492256077935373</v>
+        <v>-1.0752602687516841</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>-4.2007828584540547</v>
+        <v>-5.8366843456007658</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>2.2445642617773167</v>
+        <v>-7.9119746708716434</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>13.492353250713066</v>
+        <v>-9.7497364611102739</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>10.503141673372813</v>
+        <v>-13.507182235232534</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>2.5052772249094701</v>
+        <v>7.5687029705668962</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>3.6214142574621659</v>
+        <v>-5.2397746116213639</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>2.8976703007825853</v>
+        <v>-3.5158941718067211</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>-0.47761019474813082</v>
+        <v>-6.8002371053651558</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>7.5042863815391838</v>
+        <v>-9.3442130136206174</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>7.156674660454077</v>
+        <v>-12.031674682014305</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>-2.6142991658266048</v>
+        <v>-6.3437898990745865</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>3.2145343288689503</v>
+        <v>-1.16682429190557</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>4.2589568933133837</v>
+        <v>-3.8946448325658949</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>4.5936888795519906</v>
+        <v>0.42985316563676434</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>-6.9898397441545157</v>
+        <v>-5.784472526412479</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>0.78812941769142508</v>
+        <v>-0.2916163743574316</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>1.1685841896599749</v>
+        <v>5.6935744425774573</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>-1.1798959130328699</v>
+        <v>10.997874783062613</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>-1.5149652158058871</v>
+        <v>5.2664437920638711</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>6.2169517569426205</v>
+        <v>-0.21998148713523591</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>9.1236601053256905</v>
+        <v>-2.4882799021795492</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>-1.3037029624998544</v>
+        <v>-6.8578876358135048</v>
       </c>
     </row>
     <row r="365">
@@ -2206,6 +2238,71 @@
         <v>-0.53029129450911583</v>
       </c>
     </row>
+    <row r="422">
+      <c r="A422">
+        <v>-1.8987934524239982</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423">
+        <v>-4.9578156647228759</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424">
+        <v>-1.5443684098373414</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425">
+        <v>-2.2826806479833941</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426">
+        <v>-0.56033006101044336</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427">
+        <v>0.38289254198231237</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428">
+        <v>-1.0793231252016238</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429">
+        <v>-2.5676424424114073</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430">
+        <v>-3.2526100472448807</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431">
+        <v>-2.7646947815411185</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432">
+        <v>2.9040348440931885</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433">
+        <v>6.6359658973204541</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434">
+        <v>1.4572730890744037</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>